--- a/src/test/resources/com/sirion/xls/Issue Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Issue Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
   <si>
     <t>TCID</t>
   </si>

--- a/src/test/resources/com/sirion/xls/Issue Suite.xlsx
+++ b/src/test/resources/com/sirion/xls/Issue Suite.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>TCID</t>
   </si>
@@ -129,15 +129,9 @@
     <t>May-30-2017</t>
   </si>
   <si>
-    <t>ABC News</t>
-  </si>
-  <si>
     <t>MSA</t>
   </si>
   <si>
-    <t>Master Service Agreement - ABC News</t>
-  </si>
-  <si>
     <t>issueFunctions</t>
   </si>
   <si>
@@ -163,6 +157,12 @@
   </si>
   <si>
     <t>IssueWorkflow</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>Master Service Agreement - HSBC</t>
   </si>
   <si>
     <t>SKIP</t>
@@ -653,10 +653,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
@@ -766,28 +766,28 @@
         <v>27</v>
       </c>
       <c r="R1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Z1" s="7" t="s">
         <v>28</v>
@@ -898,13 +898,13 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="AB3" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="AC3" s="9" t="s">
         <v>4</v>
